--- a/Italy_Province_Infected.xlsx
+++ b/Italy_Province_Infected.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22702"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anthonyebert/Git/ItalyCovid19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="253" documentId="13_ncr:1_{6D2D6549-BA57-C743-BBA2-F5A9A78124A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6478584E-8259-4FF7-AA4B-F2F3E3FEF37B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAEBA45-28FF-DF41-9B38-6E7A8A4DB140}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28980" yWindow="-60" windowWidth="20400" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40660" yWindow="-680" windowWidth="20400" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="129">
   <si>
     <t>Abruzzo</t>
   </si>
@@ -417,13 +415,16 @@
   </si>
   <si>
     <t>Vicenza</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -471,7 +472,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -785,39 +786,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DX18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BU1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="CN1" sqref="CN1"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="1"/>
-    <col min="9" max="9" width="10.42578125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.85546875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.85546875" style="1"/>
-    <col min="35" max="36" width="8.85546875" style="1"/>
-    <col min="42" max="42" width="8.85546875" style="1"/>
-    <col min="47" max="47" width="8.85546875" style="1"/>
-    <col min="60" max="60" width="8.85546875" style="1"/>
-    <col min="66" max="66" width="8.85546875" style="1"/>
-    <col min="69" max="69" width="8.85546875" style="1"/>
-    <col min="78" max="78" width="8.85546875" style="1"/>
-    <col min="85" max="85" width="8.85546875" style="1"/>
-    <col min="91" max="91" width="8.85546875" style="1"/>
-    <col min="101" max="101" width="8.85546875" style="1"/>
-    <col min="112" max="112" width="8.85546875" style="1"/>
-    <col min="115" max="115" width="8.85546875" style="1"/>
-    <col min="118" max="118" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="1"/>
+    <col min="9" max="9" width="10.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.83203125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.83203125" style="1"/>
+    <col min="35" max="36" width="8.83203125" style="1"/>
+    <col min="42" max="42" width="8.83203125" style="1"/>
+    <col min="47" max="47" width="8.83203125" style="1"/>
+    <col min="60" max="60" width="8.83203125" style="1"/>
+    <col min="66" max="66" width="8.83203125" style="1"/>
+    <col min="69" max="69" width="8.83203125" style="1"/>
+    <col min="78" max="78" width="8.83203125" style="1"/>
+    <col min="85" max="85" width="8.83203125" style="1"/>
+    <col min="91" max="91" width="8.83203125" style="1"/>
+    <col min="101" max="101" width="8.83203125" style="1"/>
+    <col min="112" max="112" width="8.83203125" style="1"/>
+    <col min="115" max="115" width="8.83203125" style="1"/>
+    <col min="118" max="118" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:128">
+    <row r="1" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -967,8 +968,10 @@
       <c r="DW1" s="1"/>
       <c r="DX1" s="1"/>
     </row>
-    <row r="2" spans="1:128">
-      <c r="A2" s="1"/>
+    <row r="2" spans="1:128" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,7 +1352,7 @@
       </c>
       <c r="DX2" s="1"/>
     </row>
-    <row r="3" spans="1:128">
+    <row r="3" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>43885</v>
       </c>
@@ -1677,7 +1680,7 @@
       <c r="DW3" s="1"/>
       <c r="DX3" s="1"/>
     </row>
-    <row r="4" spans="1:128">
+    <row r="4" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43886</v>
       </c>
@@ -2005,7 +2008,7 @@
       <c r="DW4" s="1"/>
       <c r="DX4" s="1"/>
     </row>
-    <row r="5" spans="1:128">
+    <row r="5" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>43887</v>
       </c>
@@ -2333,7 +2336,7 @@
       <c r="DW5" s="1"/>
       <c r="DX5" s="1"/>
     </row>
-    <row r="6" spans="1:128">
+    <row r="6" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>43888</v>
       </c>
@@ -2661,7 +2664,7 @@
       <c r="DW6" s="1"/>
       <c r="DX6" s="1"/>
     </row>
-    <row r="7" spans="1:128">
+    <row r="7" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43889</v>
       </c>
@@ -2989,7 +2992,7 @@
       <c r="DW7" s="1"/>
       <c r="DX7" s="1"/>
     </row>
-    <row r="8" spans="1:128">
+    <row r="8" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>43890</v>
       </c>
@@ -3317,7 +3320,7 @@
       <c r="DW8" s="1"/>
       <c r="DX8" s="1"/>
     </row>
-    <row r="9" spans="1:128">
+    <row r="9" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>43891</v>
       </c>
@@ -3645,7 +3648,7 @@
       <c r="DW9" s="1"/>
       <c r="DX9" s="1"/>
     </row>
-    <row r="10" spans="1:128">
+    <row r="10" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>43892</v>
       </c>
@@ -4029,7 +4032,7 @@
       </c>
       <c r="DX10" s="1"/>
     </row>
-    <row r="11" spans="1:128">
+    <row r="11" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>43893</v>
       </c>
@@ -4413,7 +4416,7 @@
       </c>
       <c r="DX11" s="1"/>
     </row>
-    <row r="12" spans="1:128">
+    <row r="12" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>43894</v>
       </c>
@@ -4797,7 +4800,7 @@
       </c>
       <c r="DX12" s="1"/>
     </row>
-    <row r="13" spans="1:128">
+    <row r="13" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>43895</v>
       </c>
@@ -5181,7 +5184,7 @@
       </c>
       <c r="DX13" s="1"/>
     </row>
-    <row r="14" spans="1:128">
+    <row r="14" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>43896</v>
       </c>
@@ -5565,7 +5568,7 @@
       </c>
       <c r="DX14" s="1"/>
     </row>
-    <row r="15" spans="1:128">
+    <row r="15" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -5675,7 +5678,7 @@
       <c r="DW15" s="1"/>
       <c r="DX15" s="1"/>
     </row>
-    <row r="16" spans="1:128">
+    <row r="16" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -5785,7 +5788,7 @@
       <c r="DW16" s="1"/>
       <c r="DX16" s="1"/>
     </row>
-    <row r="17" spans="1:128">
+    <row r="17" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -5895,7 +5898,7 @@
       <c r="DW17" s="1"/>
       <c r="DX17" s="1"/>
     </row>
-    <row r="18" spans="1:128">
+    <row r="18" spans="1:128" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
